--- a/time_tracking.xlsx
+++ b/time_tracking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\python\rpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ECCFBB-8434-480D-B600-B945510F231F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE4186D-6309-4ED5-AC2A-592C2353994E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{20F6D0F2-7402-4578-8173-10AE0EA514D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <t>coding</t>
   </si>
   <si>
-    <t>testing, refactoring, googling, GPT asking</t>
+    <t>bugs, testing, googling, GPT asking, optimising…</t>
   </si>
 </sst>
 </file>
@@ -392,12 +392,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
